--- a/data/procesados/algabo.xlsx
+++ b/data/procesados/algabo.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D294"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,97 +471,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1010131</t>
+          <t>1010151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7791274088995</t>
+          <t>7791274088780</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vais apresto gatillo 500</t>
+          <t>Vais limpiavidrios gatillo 500</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>334.258386</v>
+        <v>282.8323575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1010151</t>
+          <t>1010201</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7791274088780</t>
+          <t>7791274190360</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vais limpiavidrios gatillo 500</t>
+          <t>Vais antigrasa gatillo 500</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>239.64615675</v>
+        <v>308.54537175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1010201</t>
+          <t>1010683</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7791274190360</t>
+          <t>7791274200380</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vais antigrasa gatillo 500</t>
+          <t>Vais perf tela dulces mimo 500</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>262.2705855</v>
+        <v>467.96390025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1010683</t>
+          <t>1010684</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7791274200380</t>
+          <t>7791274200410</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vais perf tela dulces mimo 500</t>
+          <t>Vais perf tela dulces mimo 250</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>380.5439715</v>
+        <v>337.3469715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1010684</t>
+          <t>1010685</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7791274200410</t>
+          <t>7791274200434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vais perf tela dulces mimo 250</t>
+          <t>Vais perf dulces mimos DP 500</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -571,301 +571,301 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1010687</t>
+          <t>1010686</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7791274200281</t>
+          <t>7791274200427</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vais limpiavidrios EP 900</t>
+          <t>Vais perf dulces mimos DP 250</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>195.41242875</v>
+        <v>287.9835997499999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1010688</t>
+          <t>1010687</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7791274200298</t>
+          <t>7791274200281</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vais antigrasa EP 900</t>
+          <t>Vais limpiavidrios EP 900</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221.125443</v>
+        <v>226.265886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1010689</t>
+          <t>1010688</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7791274200304</t>
+          <t>7791274200298</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vais baño EP 900</t>
+          <t>Vais antigrasa EP 900</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221.125443</v>
+        <v>267.4110285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1010690</t>
+          <t>1010689</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7791274200311</t>
+          <t>7791274200304</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vais baño gatillo 500</t>
+          <t>Vais baño EP 900</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>262.2705855</v>
+        <v>267.4110285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1010691</t>
+          <t>1010690</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7791274200328</t>
+          <t>7791274200311</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vais jab liq baja esp EP 800</t>
+          <t>Vais baño gatillo 500</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>265.34837175</v>
+        <v>308.54537175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1010692</t>
+          <t>1010691</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7791274200335</t>
+          <t>7791274200328</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vais deterg lavavajilla EP 800</t>
+          <t>Vais jab liq baja esp EP 800</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>274.61412825</v>
+        <v>329.117943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1010694</t>
+          <t>1010692</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7791274200342</t>
+          <t>7791274200335</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vais limpiador fr primav 900</t>
+          <t>Vais deterg lavavajilla EP 800</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>147.07498575</v>
+        <v>323.9775</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1010695</t>
+          <t>1010694</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7791274200359</t>
+          <t>7791274200342</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vais limp pompomes algodón 900</t>
+          <t>Vais limpiador fr primav 900</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>147.07498575</v>
+        <v>174.8398575</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1010696</t>
+          <t>1010695</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7791274200366</t>
+          <t>7791274200359</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vais limpiador lavanda 900</t>
+          <t>Vais limp pompomes algodón 900</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>147.07498575</v>
+        <v>174.8398575</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1010697</t>
+          <t>1010696</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7791274200373</t>
+          <t>7791274200366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Vais limpiador cítrico 900</t>
+          <t>Vais limpiador lavanda 900</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>147.07498575</v>
+        <v>174.8398575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1010698</t>
+          <t>1010697</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7791274200496</t>
+          <t>7791274200373</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vais limpiador fr primav 4</t>
+          <t>Vais limpiador cítrico 900</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>489.56240025</v>
+        <v>174.8398575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1010699</t>
+          <t>1010698</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7791274200502</t>
+          <t>7791274200496</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vais limp pompones algodón 4</t>
+          <t>Vais limpiador fr primav 4</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>489.56240025</v>
+        <v>570.81595725</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1010700</t>
+          <t>1010699</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7791274200519</t>
+          <t>7791274200502</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vais limpiador lavanda 4</t>
+          <t>Vais limp pompones algodón 4</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>489.56240025</v>
+        <v>570.81595725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1010701</t>
+          <t>1010700</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7791274200526</t>
+          <t>7791274200519</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vais limpiador citrus 4</t>
+          <t>Vais limpiador lavanda 4</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>489.56240025</v>
+        <v>570.81595725</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1010702</t>
+          <t>1010701</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7791274200441</t>
+          <t>7791274200526</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Vais suavizante de ropa EP 900</t>
+          <t>Vais limpiador citrus 4</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>244.78659975</v>
+        <v>570.81595725</v>
       </c>
     </row>
     <row r="22">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>323.9775</v>
+        <v>375.4035284999999</v>
       </c>
     </row>
     <row r="23">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>373.34087175</v>
+        <v>431.97</v>
       </c>
     </row>
     <row r="24">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>251.97890025</v>
+        <v>303.40492875</v>
       </c>
     </row>
     <row r="25">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>537.9106425</v>
+        <v>617.1015427499999</v>
       </c>
     </row>
     <row r="26">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>244.78659975</v>
+        <v>293.12404275</v>
       </c>
     </row>
     <row r="27">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>829.9979572499999</v>
+        <v>979.13559975</v>
       </c>
     </row>
     <row r="28">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>694.2405855000001</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="29">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>596.5289715</v>
+        <v>719.95359975</v>
       </c>
     </row>
     <row r="30">
@@ -1045,47 +1045,47 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>929.7614287499998</v>
+        <v>1110.77845725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2832063</t>
+          <t>2840350</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7791274199615</t>
+          <t>7791274197994</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sally shampoo 200</t>
+          <t>Sally Unicornio esp baño 350</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>267.4110285</v>
+        <v>1954.145886</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2840350</t>
+          <t>2840879</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7791274197994</t>
+          <t>7791274198953</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sally Unicornio esp baño 350</t>
+          <t>Sally alcohol gel 2D holder 30</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1707.30742875</v>
+        <v>293.12404275</v>
       </c>
     </row>
     <row r="33">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>239.64615675</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="34">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>190.27198575</v>
+        <v>226.265886</v>
       </c>
     </row>
     <row r="35">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1028.4989715</v>
+        <v>1213.63051425</v>
       </c>
     </row>
     <row r="36">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>390.8356567499999</v>
+        <v>440.1990284999999</v>
       </c>
     </row>
     <row r="37">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>929.7614287499998</v>
+        <v>1110.77845725</v>
       </c>
     </row>
     <row r="38">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>596.5289715</v>
+        <v>719.95359975</v>
       </c>
     </row>
     <row r="39">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>239.64615675</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="40">
@@ -1245,403 +1245,403 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1028.4989715</v>
+        <v>1213.63051425</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2943003</t>
+          <t>2943004</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7791274199806</t>
+          <t>7791274200717</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Zombies shampoo 200</t>
+          <t>Zombies 2 en 1 autito 450</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>267.4110285</v>
+        <v>771.37962825</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2943004</t>
+          <t>3300003</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7791274200717</t>
+          <t>7791274200144</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Zombies 2 en 1 autito 450</t>
+          <t>Baby set colonia 125 + sh. 200</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>668.5275712499999</v>
+        <v>971.9325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3300003</t>
+          <t>3330618</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7791274200144</t>
+          <t>7791274196546</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Baby set colonia 125 + sh. 200</t>
+          <t>Baby fecula talquera 200</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>832.060614</v>
+        <v>385.6844145</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3330618</t>
+          <t>3330619</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7791274196546</t>
+          <t>7791274198557</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Baby fecula talquera 200</t>
+          <t>Baby fecula DP 200</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>317.81112825</v>
+        <v>339.40962825</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3330619</t>
+          <t>3332002</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7791274198557</t>
+          <t>7791274192234</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Baby fecula DP 200</t>
+          <t>Baby colonia dulces mimos 200</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>277.6919145</v>
+        <v>560.53507125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3332002</t>
+          <t>3332003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7791274192234</t>
+          <t>7791274192241</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Baby colonia dulces mimos 200</t>
+          <t>Baby colonia suave brisa 200</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>488.5364714999999</v>
+        <v>560.53507125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3332003</t>
+          <t>3332004</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7791274192241</t>
+          <t>7791274000119</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Baby colonia suave brisa 200</t>
+          <t>Baby colonia dulces mimos 125</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>488.5364714999999</v>
+        <v>399.0538859999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3332004</t>
+          <t>3332006</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7791274000119</t>
+          <t>7791274199912</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Baby colonia dulces mimos 125</t>
+          <t>Kids Zero loción 100</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>342.4874145</v>
+        <v>1275.33742875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3332006</t>
+          <t>3340001</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7791274199912</t>
+          <t>7791274197307</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Kids Zero loción 100</t>
+          <t>Baby jabón pastilla 80</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1079.925</v>
+        <v>170.7361425</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3340001</t>
+          <t>3340003</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7791274197307</t>
+          <t>7791274198434</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Baby jabón pastilla 80</t>
+          <t>Baby jabon pastilla fpk 80</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>146.049057</v>
+        <v>138.84595725</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3340003</t>
+          <t>3340362</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7791274198434</t>
+          <t>7791274198243</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Baby jabon pastilla fpk 80</t>
+          <t>Baby jabón líq. c/válcula 200</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>117.24745725</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3340362</t>
+          <t>3340365</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7791274198243</t>
+          <t>7791274200700</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Baby jabón líq. c/válcula 200</t>
+          <t>Baby jabón liquido DP 200</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>342.4874145</v>
+        <v>205.704114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3340363</t>
+          <t>3343232</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7791274198908</t>
+          <t>7791274192319</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Stars Wars yoda jab liq 500</t>
+          <t>Baby shampoo extra suave 200</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1645.60051425</v>
+        <v>357.91954275</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3340365</t>
+          <t>3343233</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7791274200700</t>
+          <t>7791274199899</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Baby jabón liquido DP 200</t>
+          <t>Kids Zero shampoo Piojos 500</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>179.99109975</v>
+        <v>668.5275712499999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3343232</t>
+          <t>3343236</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7791274192319</t>
+          <t>7791274200151</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Baby shampoo extra suave 200</t>
+          <t>Baby shampoo manzanilla 200</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>301.35307125</v>
+        <v>357.91954275</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3343233</t>
+          <t>3343441</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7791274199899</t>
+          <t>7791274192326</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kids Zero shampoo Piojos 500</t>
+          <t>Baby shampoo extra suave 444</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>581.1076424999999</v>
+        <v>471.05248575</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3343236</t>
+          <t>3343442</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7791274200151</t>
+          <t>7791274196508</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Baby shampoo manzanilla 200</t>
+          <t>Baby shampoo manzanilla 444</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>301.35307125</v>
+        <v>471.05248575</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3343441</t>
+          <t>3343751</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7791274192326</t>
+          <t>7791274000386</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Baby shampoo extra suave 444</t>
+          <t>Baby shampoo extra suave 755</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>411.39742875</v>
+        <v>771.37962825</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3343442</t>
+          <t>3343752</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7791274196508</t>
+          <t>7791274000393</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Baby shampoo manzanilla 444</t>
+          <t>Baby shampoo manzanilla 755</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>411.39742875</v>
+        <v>771.37962825</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3343751</t>
+          <t>3345233</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7791274000386</t>
+          <t>7791274199905</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Baby shampoo extra suave 755</t>
+          <t>Kids Zero aco piojos 500</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1651,3837 +1651,3837 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3343752</t>
+          <t>3345441</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7791274000393</t>
+          <t>7791274200687</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Baby shampoo manzanilla 755</t>
+          <t>Baby aco extra suave 444</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>668.5275712499999</v>
+        <v>471.05248575</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3345233</t>
+          <t>3345442</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7791274199905</t>
+          <t>7791274200694</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kids Zero aco piojos 500</t>
+          <t>Baby aco manzanilla 444</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>581.1076424999999</v>
+        <v>471.05248575</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3345441</t>
+          <t>3362001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7791274200687</t>
+          <t>7791274197017</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Baby aco extra suave 444</t>
+          <t>Baby wipes 20</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>411.39742875</v>
+        <v>181.0170285</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3345442</t>
+          <t>3362002</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7791274200694</t>
+          <t>7791274197024</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Baby aco manzanilla 444</t>
+          <t>Baby wipes 48</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>411.39742875</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3362001</t>
+          <t>3362003</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7791274197017</t>
+          <t>7791274197031</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Baby wipes 20</t>
+          <t>Baby wipes 80</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>156.329943</v>
+        <v>565.6755142499999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3362002</t>
+          <t>3362004</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7791274197024</t>
+          <t>7791274199387</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Baby wipes 48</t>
+          <t>Baby wipes 100</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>342.4874145</v>
+        <v>734.3489999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3362003</t>
+          <t>3362005</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7791274197031</t>
+          <t>7791274198786</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Baby wipes 80</t>
+          <t>Baby wipes 3 x 48 15% OFF</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>488.5364714999999</v>
+        <v>999.6973717499999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3362004</t>
+          <t>3362006</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7791274199387</t>
+          <t>7791274200632</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Baby wipes 100</t>
+          <t>Baby wipes oleo calcáreo 48</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>617.1015427499999</v>
+        <v>411.39742875</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3362005</t>
+          <t>3362007</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7791274198786</t>
+          <t>7791274200649</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Baby wipes 3 x 48 15% OFF</t>
+          <t>Baby oleo calcareo DP 500</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>879.3721282499999</v>
+        <v>489.56240025</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3362006</t>
+          <t>3362008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7791274200632</t>
+          <t>7791274200663</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Baby wipes oleo calcáreo 48</t>
+          <t>Baby oleo calcareo 500</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>359.97140025</v>
+        <v>617.1015427499999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3362007</t>
+          <t>3362009</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7791274200649</t>
+          <t>7791274200533</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Baby oleo calcareo DP 500</t>
+          <t>Baby Natural wipes 48</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>419.62645725</v>
+        <v>570.81595725</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3362008</t>
+          <t>3362010</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7791274200663</t>
+          <t>7791274200540</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Baby oleo calcareo 500</t>
+          <t>Baby Natural wipes 80</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>534.822057</v>
+        <v>831.0238859999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3362009</t>
+          <t>3362011</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7791274200533</t>
+          <t>7791274200656</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Baby Natural wipes 48</t>
+          <t>Baby oleo calcareo EP 900</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>474.14107125</v>
+        <v>905.0851425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3362010</t>
+          <t>3367234</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7791274200540</t>
+          <t>7791274001567</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Baby Natural wipes 80</t>
+          <t>Baby aceite 200</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>709.6619145</v>
+        <v>565.6755142499999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3362011</t>
+          <t>3367235</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7791274200656</t>
+          <t>7791274200908</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Baby oleo calcareo EP 900</t>
+          <t>Baby aceite para bebé 355</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>802.2330855</v>
+        <v>761.087943</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3367234</t>
+          <t>3369030</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7791274001567</t>
+          <t>7791274200670</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Baby aceite 200</t>
+          <t>Baby Hisopos Box 30</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>473.1151425</v>
+        <v>367.1745</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3367235</t>
+          <t>3800001</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7791274200908</t>
+          <t>7791274198489</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Baby aceite para bebé 355</t>
+          <t>Hello Kitt set bs 125 + sh 200</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>647.9549999999999</v>
+        <v>1272.2596425</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3369030</t>
+          <t>3832121</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7791274200670</t>
+          <t>7791274001314</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Baby Hisopos Box 30</t>
+          <t>Hello Kitty bs dulzura 125</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>311.63395725</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3800001</t>
+          <t>3832122</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7791274198489</t>
+          <t>7791274001321</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hello Kitt set bs 125 + sh 200</t>
+          <t>Hello Kitty bs alegría 125</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1059.35242875</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3832121</t>
+          <t>3840004</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7791274001314</t>
+          <t>7791274003547</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hello Kitty bs dulzura 125</t>
+          <t>Hello Kitty Saniti Holder 30ml</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>699.3810285</v>
+        <v>292.098114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3832122</t>
+          <t>3840364</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7791274001321</t>
+          <t>7791274200830</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Hello Kitty bs alegría 125</t>
+          <t>Hello Kitty jab liq BT 300</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>699.3810285</v>
+        <v>1213.63051425</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3840004</t>
+          <t>4000001</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7791274003547</t>
+          <t>7791274198472</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hello Kitty Saniti Holder 30ml</t>
+          <t>Frozen set bs 125 + sh 200</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>244.78659975</v>
+        <v>1272.2596425</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3840364</t>
+          <t>4032122</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7791274200830</t>
+          <t>7791274199875</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hello Kitty jab liq BT 300</t>
+          <t>Star Wars colonia 125</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1028.4989715</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3843006</t>
+          <t>4032130</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7791274197222</t>
+          <t>7791274005022</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hello Kitty shampoo 200</t>
+          <t>Frozen body splash 125</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>329.117943</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4000001</t>
+          <t>4040018</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7791274198472</t>
+          <t>7791274200816</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Frozen set bs 125 + sh 200</t>
+          <t>Star Wars jab liq BT 300</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1059.35242875</v>
+        <v>1213.63051425</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4032122</t>
+          <t>4040875</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7791274199875</t>
+          <t>7791274199219</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Star Wars colonia 125</t>
+          <t>Frozen sanit gel box 75</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>699.3810285</v>
+        <v>287.9835997499999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4032130</t>
+          <t>4040879</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7791274005022</t>
+          <t>7791274199202</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Frozen body splash 125</t>
+          <t>FROZEN Saniti Holder 30</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>699.3810285</v>
+        <v>292.098114</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4040018</t>
+          <t>4200003</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7791274200816</t>
+          <t>7791274198366</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Star Wars jab liq BT 300</t>
+          <t>Spiderman set Bs 125 + Sh 200</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1028.4989715</v>
+        <v>1272.2596425</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4040875</t>
+          <t>4232001</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7791274199219</t>
+          <t>7791274002625</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Frozen sanit gel box 75</t>
+          <t>Avengers colonia Hulk 125</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>244.78659975</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4043001</t>
+          <t>4232002</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7791274197239</t>
+          <t>7791274002632</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Frozen shampoo 200</t>
+          <t>Avengers colonia Iron Man 125</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>329.117943</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4062004</t>
+          <t>4232003</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7791274199950</t>
+          <t>7791274002649</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Star Wars wipes antibact 25</t>
+          <t>Avengers colonia Cap Améri 125</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>128.56507125</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4200003</t>
+          <t>4232004</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7791274198366</t>
+          <t>7791274197970</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Spiderman set Bs 125 + Sh 200</t>
+          <t>Spiderman colonia 125</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1059.35242875</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4232001</t>
+          <t>4240301</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7791274002625</t>
+          <t>7791274197178</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Avengers colonia Hulk 125</t>
+          <t>Avengers jab liq BT 300</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>699.3810285</v>
+        <v>1213.63051425</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4232002</t>
+          <t>4240302</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7791274002632</t>
+          <t>7791274197987</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Avengers colonia Iron Man 125</t>
+          <t>Spiderman jab liq BT 300</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>699.3810285</v>
+        <v>1213.63051425</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4232003</t>
+          <t>4240875</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7791274002649</t>
+          <t>7791274199196</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Avengers colonia Cap Améri 125</t>
+          <t>Spiderman sanitizante box 75</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>699.3810285</v>
+        <v>287.9835997499999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4232004</t>
+          <t>4240879</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7791274197970</t>
+          <t>7791274199189</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Spiderman colonia 125</t>
+          <t>Spiderman saniti holder 30</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>699.3810285</v>
+        <v>292.098114</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4240301</t>
+          <t>4243004</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7791274197178</t>
+          <t>7791274198359</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Avengers jab liq BT 300</t>
+          <t>Spiderman shampoo 200</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1028.4989715</v>
+        <v>381.56990025</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4240302</t>
+          <t>4243005</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7791274197987</t>
+          <t>7791274198373</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Spiderman jab liq BT 300</t>
+          <t>Spiderman sh 2D 350</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1028.4989715</v>
+        <v>771.37962825</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4240875</t>
+          <t>4243007</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7791274199196</t>
+          <t>7791274200793</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Spiderman sanitizante box 75</t>
+          <t>Spiderman 2 en 1 autito 450</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>244.78659975</v>
+        <v>771.37962825</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4240879</t>
+          <t>4243401</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7791274199189</t>
+          <t>7791274197185</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Spiderman saniti holder 30</t>
+          <t>Avengers shampo surtido 2D 350</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>244.78659975</v>
+        <v>771.37962825</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4243004</t>
+          <t>4700003</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7791274198359</t>
+          <t>7791274198441</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Spiderman shampoo 200</t>
+          <t>Minions set bs 125 + sh 200</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>329.117943</v>
+        <v>1272.2596425</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4243005</t>
+          <t>4732003</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7791274198373</t>
+          <t>7791274004568</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Spiderman sh 2D 350</t>
+          <t>Minions colonia 125</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>668.5275712499999</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4243007</t>
+          <t>4867620</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7791274200793</t>
+          <t>7791274004445</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Spiderman 2 en 1 autito 450</t>
+          <t>Cocoa spray bronzer F8 250</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>668.5275712499999</v>
+        <v>1748.45257125</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4243401</t>
+          <t>4867622</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7791274197185</t>
+          <t>7791274004797</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Avengers shampo surtido 2D 350</t>
+          <t>Cocoa spray bronzer F15 250</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>668.5275712499999</v>
+        <v>1933.584114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4700003</t>
+          <t>4867624</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7791274198441</t>
+          <t>7791274004810</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Minions set bs 125 + sh 200</t>
+          <t>Cocoa spray bronzer F30 250</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1059.35242875</v>
+        <v>2447.83359975</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4732003</t>
+          <t>4876005</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7791274004568</t>
+          <t>7791274197789</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Minions colonia 125</t>
+          <t>Cocoa prot solar F50 pomo 130</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>699.3810285</v>
+        <v>1954.145886</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>5743001</t>
+          <t>4876103</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7791274200557</t>
+          <t>7791274002830</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Greenwood aco perro &amp; gato 500</t>
+          <t>Cocoa prot solar F30 pomo 130</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>440.1990284999999</v>
+        <v>1465.6094145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6000813</t>
+          <t>4876104</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7791274200199</t>
+          <t>7791274002847</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Set Regalo Crema + Shower Gel</t>
+          <t>Cocoa prot solar F45 pomo 130</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>740.51537175</v>
+        <v>1697.02654275</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6010251</t>
+          <t>4876105</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7791274197840</t>
+          <t>7791274199424</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Vais perf tela cálida prim 250</t>
+          <t>Cocoa crema hid autobronc 130</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>287.9835997499999</v>
+        <v>1121.0701425</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6010253</t>
+          <t>4876108</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7791274197857</t>
+          <t>7791274200625</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Vais perf tela suave brisa 250</t>
+          <t>Cocoa spray inv FPS 50 120</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>287.9835997499999</v>
+        <v>1799.87859975</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6010451</t>
+          <t>5743001</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7791274000621</t>
+          <t>7791274200557</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Vais perf tela cálida prim 500</t>
+          <t>Greenwood aco perro &amp; gato 500</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>380.5439715</v>
+        <v>514.24948575</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6010453</t>
+          <t>5745001</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7791274000645</t>
+          <t>7791274200489</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Vais perf suave brisa 500</t>
+          <t>Greenwood sh perro &amp; gato 500</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>380.5439715</v>
+        <v>514.24948575</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6010455</t>
+          <t>6000813</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7791274000652</t>
+          <t>7791274200199</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ALGABO perf cálida prim DP 450</t>
+          <t>Set Regalo Crema + Shower Gel</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>331.1805997499999</v>
+        <v>979.13559975</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6010457</t>
+          <t>6000818</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7791274000676</t>
+          <t>7791274201073</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ALGABO perf suave brisa DP 450</t>
+          <t>Set regalo crema + body splash</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>331.1805997499999</v>
+        <v>1076.8364145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6010458</t>
+          <t>6010251</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7791274198762</t>
+          <t>7791274197840</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vais perf suave brisa DP 250</t>
+          <t>Vais perf tela cálida prim 250</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>236.55757125</v>
+        <v>337.3469715</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6010459</t>
+          <t>6010253</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7791274198779</t>
+          <t>7791274197857</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vais perf cálida prim DP 250</t>
+          <t>Vais perf tela suave brisa 250</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>236.55757125</v>
+        <v>337.3469715</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6030170</t>
+          <t>6010451</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7791274187742</t>
+          <t>7791274000621</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Algabo foot 100</t>
+          <t>Vais perf tela cálida prim 500</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>177.928443</v>
+        <v>467.96390025</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6030171</t>
+          <t>6010453</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7791274009532</t>
+          <t>7791274000645</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Algabo foot 200</t>
+          <t>Vais perf suave brisa 500</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>267.4110285</v>
+        <v>467.96390025</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6030172</t>
+          <t>6010455</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7791274196416</t>
+          <t>7791274000652</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Algabo foot EP 200</t>
+          <t>ALGABO perf cálida prim DP 450</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>190.27198575</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6030174</t>
+          <t>6010457</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7791274003110</t>
+          <t>7791274000676</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Algabo foot 60</t>
+          <t>ALGABO perf suave brisa DP 450</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>154.2780855</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6030177</t>
+          <t>6010458</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7791274000546</t>
+          <t>7791274198762</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Algabo foot att p/pies 153</t>
+          <t>Vais perf suave brisa DP 250</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>342.4874145</v>
+        <v>287.9835997499999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6030178</t>
+          <t>6010459</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7791274003202</t>
+          <t>7791274198779</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Algabo foot att p/calzado 153</t>
+          <t>Vais perf cálida prim DP 250</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>342.4874145</v>
+        <v>287.9835997499999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6030180</t>
+          <t>6030170</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7791274198045</t>
+          <t>7791274187742</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Algabo talco clásico 180</t>
+          <t>Algabo foot 100</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>234.4949145</v>
+        <v>203.64145725</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6030181</t>
+          <t>6030171</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7791274004377</t>
+          <t>7791274009532</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Algabo foot mujer 100</t>
+          <t>Algabo foot 200</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>177.928443</v>
+        <v>308.54537175</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6030182</t>
+          <t>6030172</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7791274004360</t>
+          <t>7791274196416</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Algabo foot mujer 60</t>
+          <t>Algabo foot EP 200</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>154.2780855</v>
+        <v>236.55757125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6030183</t>
+          <t>6030174</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7791274198052</t>
+          <t>7791274003110</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Algabo talco clásico EP 200</t>
+          <t>Algabo foot 60</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>190.27198575</v>
+        <v>182.04295725</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6030184</t>
+          <t>6030177</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7791274198069</t>
+          <t>7791274000546</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Algabo talco soft rosa 180</t>
+          <t>Algabo foot att p/pies 153</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>234.4949145</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6030185</t>
+          <t>6030178</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7791274198076</t>
+          <t>7791274003202</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Algabo talco soft EP 200</t>
+          <t>Algabo foot att p/calzado 153</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>190.27198575</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6030186</t>
+          <t>6030180</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7791274198113</t>
+          <t>7791274198045</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Algabo talco clásico 120</t>
+          <t>Algabo talco clásico 180</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>185.13154275</v>
+        <v>282.8323575</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6030187</t>
+          <t>6030181</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7791274198120</t>
+          <t>7791274004377</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Algabo talco soft 120</t>
+          <t>Algabo foot mujer 100</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>185.13154275</v>
+        <v>203.64145725</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>6030188</t>
+          <t>6030182</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7791274200038</t>
+          <t>7791274004360</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Algabo foot antibacterial 100</t>
+          <t>Algabo foot mujer 60</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>189.246057</v>
+        <v>182.04295725</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6030189</t>
+          <t>6030183</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7791274200045</t>
+          <t>7791274198052</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Algabo foot antibacterial 200</t>
+          <t>Algabo talco clásico EP 200</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>277.6919145</v>
+        <v>236.55757125</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6030191</t>
+          <t>6030184</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7791274200885</t>
+          <t>7791274198069</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Algabo foot att fresh aer 153</t>
+          <t>Algabo talco soft rosa 180</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>342.4874145</v>
+        <v>282.8323575</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6030252</t>
+          <t>6030185</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7791274188350</t>
+          <t>7791274198076</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Algabo talco perf. floral 250</t>
+          <t>Algabo talco soft EP 200</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>220.09951425</v>
+        <v>236.55757125</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6030253</t>
+          <t>6030186</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7791274188367</t>
+          <t>7791274198113</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Algabo talco perf. violets 250</t>
+          <t>Algabo talco clásico 120</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>220.09951425</v>
+        <v>226.265886</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6030421</t>
+          <t>6030187</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7791274196461</t>
+          <t>7791274198120</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Algabo talco perf bolsita 200</t>
+          <t>Algabo talco soft 120</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>152.21542875</v>
+        <v>226.265886</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6030422</t>
+          <t>6030188</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7791274196478</t>
+          <t>7791274200038</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Algabo talco perf bolsita 400</t>
+          <t>Algabo foot antibacterial 100</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>222.15137175</v>
+        <v>215.985</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6030614</t>
+          <t>6030189</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7791274003578</t>
+          <t>7791274200045</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Algabo natural fécula 250</t>
+          <t>Algabo foot antibacterial 200</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>342.4874145</v>
+        <v>323.9775</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>6030617</t>
+          <t>6030191</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7791274003554</t>
+          <t>7791274200885</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Algabo natural fécula DP 250</t>
+          <t>Algabo foot att fresh aer 153</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>293.12404275</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6032323</t>
+          <t>6030252</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7791274087134</t>
+          <t>7791274188350</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Algabo colonia ambre 500</t>
+          <t>Algabo talco perf. floral 250</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>483.3960284999999</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6032324</t>
+          <t>6030253</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7791274009242</t>
+          <t>7791274188367</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Algabo colonia inglesa 500</t>
+          <t>Algabo talco perf. violets 250</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>483.3960284999999</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6032325</t>
+          <t>6030421</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7791274000317</t>
+          <t>7791274196461</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Algabo colonia lavanda 500</t>
+          <t>Algabo talco perf bolsita 200</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>483.3960284999999</v>
+        <v>185.13154275</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6032754</t>
+          <t>6030422</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7791274189821</t>
+          <t>7791274196478</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Algabo colonia inglesa 750</t>
+          <t>Algabo talco perf bolsita 400</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>534.822057</v>
+        <v>269.462886</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>6040001</t>
+          <t>6030614</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7791274200748</t>
+          <t>7791274003578</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Kids jabón líquido DP 300</t>
+          <t>Algabo natural fécula 250</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>228.32854275</v>
+        <v>411.39742875</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6040361</t>
+          <t>6030617</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7791274195891</t>
+          <t>7791274003554</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Algabo jab liq coco-lav 500</t>
+          <t>Algabo natural fécula DP 250</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>390.8356567499999</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6040363</t>
+          <t>6032323</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7791274195877</t>
+          <t>7791274087134</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Algabo jab liq manz-mag 500</t>
+          <t>Algabo colonia ambre 500</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>390.8356567499999</v>
+        <v>565.6755142499999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6040368</t>
+          <t>6032324</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7791274000874</t>
+          <t>7791274009242</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Algabo jab liq antibac 300</t>
+          <t>Algabo colonia inglesa 500</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>293.12404275</v>
+        <v>565.6755142499999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6040369</t>
+          <t>6032325</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7791274000881</t>
+          <t>7791274000317</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Algabo jab liq antibac DP 300</t>
+          <t>Algabo colonia lavanda 500</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>221.125443</v>
+        <v>565.6755142499999</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>6040370</t>
+          <t>6032754</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7791274199295</t>
+          <t>7791274189821</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Algabo jab liq antibac bidón 4</t>
+          <t>Algabo colonia inglesa 750</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1727.88</v>
+        <v>655.15809975</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6040861</t>
+          <t>6040001</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7791274198991</t>
+          <t>7791274200748</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Alcohol en gel Ultra Pocket 70</t>
+          <t>Kids jabón líquido DP 300</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>147.07498575</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6040864</t>
+          <t>6040361</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7791274199028</t>
+          <t>7791274195891</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ultra alcohol gel DP 220</t>
+          <t>Algabo jab liq coco-lav 500</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>162.507114</v>
+        <v>426.829557</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>6040866</t>
+          <t>6040363</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7791274199042</t>
+          <t>7791274195877</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ultra sanit spray superf 500</t>
+          <t>Algabo jab liq manz-mag 500</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>390.8356567499999</v>
+        <v>426.829557</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6040868</t>
+          <t>6040368</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7791274004162</t>
+          <t>7791274000874</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Algabo esp antib manz&amp;mag 250</t>
+          <t>Algabo jab liq antibac 300</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>359.97140025</v>
+        <v>341.46148575</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6040870</t>
+          <t>6040369</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7791274196522</t>
+          <t>7791274000881</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Algabo saniti incoloro 300</t>
+          <t>Algabo jab liq antibac DP 300</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>255.06748575</v>
+        <v>244.78659975</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>6040875</t>
+          <t>6040370</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7791274196515</t>
+          <t>7791274199295</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ultra sanitizante gel 75</t>
+          <t>Algabo jab liq antibac bidón 4</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>195.41242875</v>
+        <v>1874.95498575</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>6040876</t>
+          <t>6040861</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7791274004735</t>
+          <t>7791274198991</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Algabo sanitiz DP 300</t>
+          <t>Alcohol en gel Ultra Pocket 70</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>190.27198575</v>
+        <v>174.8398575</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>6040879</t>
+          <t>6040864</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7791274003608</t>
+          <t>7791274199028</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ultra sanitiz gel holder 30</t>
+          <t>Ultra alcohol gel DP 220</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>215.985</v>
+        <v>185.13154275</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6040880</t>
+          <t>6040866</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7791274196539</t>
+          <t>7791274199042</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ultra sanitizante gel 750</t>
+          <t>Ultra sanit spray superf 500</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>539.9625</v>
+        <v>452.54257125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>6040882</t>
+          <t>6040868</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7791274199059</t>
+          <t>7791274004162</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ultra sanit spray 140</t>
+          <t>Algabo esp antib manz&amp;mag 250</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>172.788</v>
+        <v>421.689114</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6040883</t>
+          <t>6040870</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7791274193392</t>
+          <t>7791274196522</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Algabo jab liq green tea 300</t>
+          <t>Algabo saniti incoloro 300</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>218.04765675</v>
+        <v>276.66598575</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>6040884</t>
+          <t>6040875</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7791274193408</t>
+          <t>7791274196515</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Algabo jab liq citrus 300</t>
+          <t>Ultra sanitizante gel 75</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>218.04765675</v>
+        <v>226.265886</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>6040885</t>
+          <t>6040876</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7791274193415</t>
+          <t>7791274004735</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Algabo jab liq floral rain 300</t>
+          <t>Algabo sanitiz DP 300</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>218.04765675</v>
+        <v>224.2140285</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>6040886</t>
+          <t>6040879</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7791274196010</t>
+          <t>7791274003608</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Algabo jab liq citrus DP 300</t>
+          <t>Ultra sanitiz gel holder 30</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>141.93454275</v>
+        <v>244.78659975</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>6040887</t>
+          <t>6040880</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7791274196041</t>
+          <t>7791274196539</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Algabo jab liq greentea DP 300</t>
+          <t>Ultra sanitizante gel 750</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>141.93454275</v>
+        <v>617.1015427499999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6040888</t>
+          <t>6040882</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7791274196003</t>
+          <t>7791274199059</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Algabo jab liq flo rain DP 300</t>
+          <t>Ultra alcohol aerosol 140</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>141.93454275</v>
+        <v>195.41242875</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>6040893</t>
+          <t>6040883</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7791274000720</t>
+          <t>7791274193392</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Algabo jab liq ftos bosque 300</t>
+          <t>Algabo jab liq green tea 300</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>218.04765675</v>
+        <v>251.97890025</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>6040894</t>
+          <t>6040884</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7791274000713</t>
+          <t>7791274193408</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Algabo jab liq coconut 300</t>
+          <t>Algabo jab liq citrus 300</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>218.04765675</v>
+        <v>251.97890025</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>6040895</t>
+          <t>6040885</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7791274000744</t>
+          <t>7791274193415</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Algabo jab liq f bosque DP 300</t>
+          <t>Algabo jab liq floral rain 300</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>141.93454275</v>
+        <v>251.97890025</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6040896</t>
+          <t>6040886</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7791274000737</t>
+          <t>7791274196010</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Algabo jab liq coconut DP 300</t>
+          <t>Algabo jab liq citrus DP 300</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>141.93454275</v>
+        <v>164.5589715</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>6040897</t>
+          <t>6040887</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7791274000485</t>
+          <t>7791274196041</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Algabo jab liq cremoso 300</t>
+          <t>Algabo jab liq greentea DP 300</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>218.04765675</v>
+        <v>164.5589715</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6040898</t>
+          <t>6040888</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7791274000584</t>
+          <t>7791274196003</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Algabo jab liq flower mix 300</t>
+          <t>Algabo jab liq flo rain DP 300</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>218.04765675</v>
+        <v>164.5589715</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>6040899</t>
+          <t>6040893</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7791274000577</t>
+          <t>7791274000720</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Algabo jab liq cremoso DP 300</t>
+          <t>Algabo jab liq ftos bosque 300</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>141.93454275</v>
+        <v>251.97890025</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6040900</t>
+          <t>6040894</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7791274000492</t>
+          <t>7791274000713</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Algabo jab liq flower DP 300</t>
+          <t>Algabo jab liq coconut 300</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>141.93454275</v>
+        <v>251.97890025</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6040902</t>
+          <t>6040895</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7791274004933</t>
+          <t>7791274000744</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Algabo espuma manz-mag DP 250</t>
+          <t>Algabo jab liq f bosque DP 300</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>231.41712825</v>
+        <v>164.5589715</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6040904</t>
+          <t>6040896</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7791274198458</t>
+          <t>7791274000737</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Algabo jab liq cocomiel DP 220</t>
+          <t>Algabo jab liq coconut DP 300</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>123.42462825</v>
+        <v>164.5589715</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6040905</t>
+          <t>6040897</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7791274198465</t>
+          <t>7791274000485</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Algabo jab liq kar-agu DP 220</t>
+          <t>Algabo jab liq cremoso 300</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>123.42462825</v>
+        <v>251.97890025</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6040906</t>
+          <t>6040898</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7791274198960</t>
+          <t>7791274000584</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ultra sanitizante gel 500</t>
+          <t>Algabo jab liq flower mix 300</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>390.8356567499999</v>
+        <v>251.97890025</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6040908</t>
+          <t>6040899</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7791274199066</t>
+          <t>7791274000577</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ultra sanitiz c/glic p/manos 4</t>
+          <t>Algabo jab liq cremoso DP 300</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1851.30462825</v>
+        <v>164.5589715</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6040909</t>
+          <t>6040900</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7791274199073</t>
+          <t>7791274000492</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ultra sanitiz superficies 4</t>
+          <t>Algabo jab liq flower DP 300</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1851.30462825</v>
+        <v>164.5589715</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6040911</t>
+          <t>6040902</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7791274199103</t>
+          <t>7791274004933</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ultra sanit gel c/glic manos 4</t>
+          <t>Algabo espuma manz-mag DP 250</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2128.99654275</v>
+        <v>267.4110285</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6040912</t>
+          <t>6040904</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7791274199288</t>
+          <t>7791274198458</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Ultra sanit spray 125</t>
+          <t>Algabo jab liq cocomiel DP 220</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>208.78190025</v>
+        <v>141.93454275</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6040913</t>
+          <t>6040905</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7791274199516</t>
+          <t>7791274198465</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Algabo jab liq citrus EP 900</t>
+          <t>Algabo jab liq kar-agu DP 220</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>474.14107125</v>
+        <v>141.93454275</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>6040914</t>
+          <t>6040906</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7791274199523</t>
+          <t>7791274198960</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Algabo jab liq greentea EP 900</t>
+          <t>Ultra sanitizante gel 500</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>474.14107125</v>
+        <v>452.54257125</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6040915</t>
+          <t>6040907</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7791274199530</t>
+          <t>7791274199080</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Algabo jab liq floral EP 900</t>
+          <t>Ultra sanit spray 500</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>474.14107125</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6040916</t>
+          <t>6040908</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7791274199547</t>
+          <t>7791274199066</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Algabo jab liq antibac EP 900</t>
+          <t>Ultra sanitiz c/glic p/manos 4</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>524.53037175</v>
+        <v>1851.30462825</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>6040917</t>
+          <t>6040909</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7791274199554</t>
+          <t>7791274199073</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Algabo jab liq coco-miel 221</t>
+          <t>Ultra sanitiz superficies 4</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>220.09951425</v>
+        <v>2007.63457125</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>6040918</t>
+          <t>6040911</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7791274199561</t>
+          <t>7791274199103</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Algabo jab liq kar-agu 221</t>
+          <t>Ultra sanit gel c/glic manos 4</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>220.09951425</v>
+        <v>2353.21057125</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>6040919</t>
+          <t>6040912</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7791274199578</t>
+          <t>7791274199288</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Algabo gel ducha coco-miel 350</t>
+          <t>Ultra sanit spray 125</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>277.6919145</v>
+        <v>241.69801425</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6040920</t>
+          <t>6040913</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7791274199585</t>
+          <t>7791274199516</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Algabo gel ducha kar-agu 350</t>
+          <t>Algabo jab liq citrus EP 900</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>277.6919145</v>
+        <v>537.9106425</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>6040921</t>
+          <t>6040914</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7791274199592</t>
+          <t>7791274199523</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Ultra sanitizante gel EP 1000</t>
+          <t>Algabo jab liq greentea EP 900</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>489.56240025</v>
+        <v>537.9106425</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>6040922</t>
+          <t>6040915</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7791274199677</t>
+          <t>7791274199530</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ultra sanitiz gel pocket 60</t>
+          <t>Algabo jab liq floral EP 900</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>239.64615675</v>
+        <v>537.9106425</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6040926</t>
+          <t>6040916</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7791274200243</t>
+          <t>7791274199547</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Ultra sanitizante gel 250</t>
+          <t>Algabo jab liq antibac EP 900</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>244.78659975</v>
+        <v>606.8098575</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6040928</t>
+          <t>6040917</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7791274200182</t>
+          <t>7791274199554</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Ultra sanit gel fresh 250</t>
+          <t>Algabo jab liq coco-miel 221</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>272.5514715</v>
+        <v>244.78659975</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6040929</t>
+          <t>6040918</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7791274200892</t>
+          <t>7791274199561</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>El 10 jab liq BT 300</t>
+          <t>Algabo jab liq kar-agu 221</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1028.4989715</v>
+        <v>244.78659975</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6042053</t>
+          <t>6040919</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7791274005275</t>
+          <t>7791274199578</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Algabo quita fortalecedor 50</t>
+          <t>Algabo gel ducha coco-miel 350</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>104.9039145</v>
+        <v>317.81112825</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>6042054</t>
+          <t>6040920</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7791274005282</t>
+          <t>7791274199585</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Algabo quita humectante 50</t>
+          <t>Algabo gel ducha kar-agu 350</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>104.9039145</v>
+        <v>317.81112825</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>6042055</t>
+          <t>6040921</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7791274005299</t>
+          <t>7791274199592</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Algabo quita c/keratina 50</t>
+          <t>Ultra sanitizante gel EP 1000</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>104.9039145</v>
+        <v>565.6755142499999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>6042116</t>
+          <t>6040922</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7791274005060</t>
+          <t>7791274199677</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Algabo quita express 75</t>
+          <t>Ultra sanitiz gel pocket 60</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>293.12404275</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6042118</t>
+          <t>6040926</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7791274005206</t>
+          <t>7791274200243</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Algabo quita c/ dosif. 120</t>
+          <t>Ultra sanitizante gel 250</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>337.3469715</v>
+        <v>287.9835997499999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6042153</t>
+          <t>6040928</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7791274005305</t>
+          <t>7791274200182</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Algabo quita fortalecedor 100</t>
+          <t>Ultra sanit gel fresh 250</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>159.4185285</v>
+        <v>293.12404275</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6042154</t>
+          <t>6040929</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7791274005312</t>
+          <t>7791274200892</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Algabo quita humectante 100</t>
+          <t>El 10 jab liq BT 300</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>159.4185285</v>
+        <v>1213.63051425</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6042155</t>
+          <t>6042053</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7791274005329</t>
+          <t>7791274005275</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Algabo quita c/ keratina 100</t>
+          <t>Algabo quita fortalecedor 50</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>159.4185285</v>
+        <v>123.42462825</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6042156</t>
+          <t>6042054</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7791274198144</t>
+          <t>7791274005282</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Algabo quita xtreme prof 100</t>
+          <t>Algabo quita humectante 50</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>195.41242875</v>
+        <v>123.42462825</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6042157</t>
+          <t>6042055</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>7791274199882</t>
+          <t>7791274005299</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Algabo quita black 100</t>
+          <t>Algabo quita c/keratina 50</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>195.41242875</v>
+        <v>123.42462825</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>6043102</t>
+          <t>6042116</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7791274087615</t>
+          <t>7791274005060</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Kids shampoo sandía dulce 350</t>
+          <t>Algabo quita express 75</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>293.12404275</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6043103</t>
+          <t>6042118</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7791274192593</t>
+          <t>7791274005206</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Kids shampoo melocotón 350</t>
+          <t>Algabo quita c/ dosif. 120</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>293.12404275</v>
+        <v>399.0538859999999</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6043104</t>
+          <t>6042153</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7791274087622</t>
+          <t>7791274005305</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Kids shampoo chicle 350</t>
+          <t>Algabo quita fortalecedor 100</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>293.12404275</v>
+        <v>189.246057</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>6043301</t>
+          <t>6042154</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7791274196959</t>
+          <t>7791274005312</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Algabo sh aguac y argán EP 300</t>
+          <t>Algabo quita humectante 100</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>146.049057</v>
+        <v>189.246057</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6043303</t>
+          <t>6042155</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7791274196966</t>
+          <t>7791274005329</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Algabo sh coco y leche EP 300</t>
+          <t>Algabo quita c/ keratina 100</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>146.049057</v>
+        <v>189.246057</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>6043308</t>
+          <t>6042156</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7791274196973</t>
+          <t>7791274198144</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Algabo sh manz y magno EP 300</t>
+          <t>Algabo quita xtreme prof 100</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>146.049057</v>
+        <v>236.55757125</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>6043309</t>
+          <t>6042157</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7791274198847</t>
+          <t>7791274199882</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Algabo sh detox EP 300</t>
+          <t>Algabo quita black 100</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>146.049057</v>
+        <v>236.55757125</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>6043750</t>
+          <t>6043102</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>7791274198700</t>
+          <t>7791274087615</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Kids shampoo chicle 750</t>
+          <t>Kids shampoo sandía dulce 350</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>440.1990284999999</v>
+        <v>337.3469715</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>6043751</t>
+          <t>6043103</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7791274198717</t>
+          <t>7791274192593</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Kids shampoo sandía dulce 750</t>
+          <t>Kids shampoo melocotón 350</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>440.1990284999999</v>
+        <v>337.3469715</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>6043752</t>
+          <t>6043104</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7791274198946</t>
+          <t>7791274087622</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Trolls shampoo Branch 750</t>
+          <t>Kids shampoo chicle 350</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>719.95359975</v>
+        <v>337.3469715</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>6043753</t>
+          <t>6043301</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7791274198915</t>
+          <t>7791274196959</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Trolls shampoo Poppi 750</t>
+          <t>Algabo sh aguac y argán EP 300</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>719.95359975</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>6043910</t>
+          <t>6043303</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7791274198151</t>
+          <t>7791274196966</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Algabo sh aguacate y argán 930</t>
+          <t>Algabo sh coco y leche EP 300</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>318.837057</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6043911</t>
+          <t>6043308</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7791274198168</t>
+          <t>7791274196973</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Algabo sh coco y leche 930</t>
+          <t>Algabo sh manz y magno EP 300</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>318.837057</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>6043912</t>
+          <t>6043309</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7791274198175</t>
+          <t>7791274198847</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Algabo sh manz y magnolia 930</t>
+          <t>Algabo sh detox EP 300</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>318.837057</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6043922</t>
+          <t>6043750</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7791274199431</t>
+          <t>7791274198700</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Algabo sh aguac y argán EP 930</t>
+          <t>Kids shampoo chicle 750</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>293.12404275</v>
+        <v>503.96859975</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6043923</t>
+          <t>6043751</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7791274199448</t>
+          <t>7791274198717</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Algabo sh coco y miel EP 930</t>
+          <t>Kids shampoo sandía dulce 750</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>293.12404275</v>
+        <v>503.96859975</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6043924</t>
+          <t>6043752</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7791274199455</t>
+          <t>7791274198946</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Algabo sh manz y magno EP 930</t>
+          <t>Trolls shampoo Branch 750</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>293.12404275</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6043926</t>
+          <t>6043753</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7791274200571</t>
+          <t>7791274198915</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Algabo sh 0% açaí y romero 750</t>
+          <t>Trolls shampoo Poppi 750</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>385.6844145</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6043927</t>
+          <t>6043910</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>7791274200588</t>
+          <t>7791274198151</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Algabo sh 0% oliva y argán 750</t>
+          <t>Algabo sh aguacate y argán 930</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>385.6844145</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6045111</t>
+          <t>6043911</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>7791274004391</t>
+          <t>7791274198168</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Kids aco sandía dulce 350</t>
+          <t>Algabo sh coco y leche 930</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>293.12404275</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>6045301</t>
+          <t>6043912</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>7791274196980</t>
+          <t>7791274198175</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Algabo ac aguac y argán EP 300</t>
+          <t>Algabo sh manz y magnolia 930</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>146.049057</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6045303</t>
+          <t>6043920</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7791274196997</t>
+          <t>7791274198809</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Algabo ac coco y miel EP 300</t>
+          <t>Algabo sh detox 930</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>146.049057</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6045308</t>
+          <t>6043922</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7791274197000</t>
+          <t>7791274199431</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Algabo ac manz y magno EP 300</t>
+          <t>Algabo sh aguac y argán EP 930</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>146.049057</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6045309</t>
+          <t>6043923</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7791274198854</t>
+          <t>7791274199448</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Algabo ac detox EP 300</t>
+          <t>Algabo sh coco y miel EP 930</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>146.049057</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6045752</t>
+          <t>6043924</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7791274198724</t>
+          <t>7791274199455</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Kids aco sandía dulce 750</t>
+          <t>Algabo sh manz y magno EP 930</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>440.1990284999999</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6045753</t>
+          <t>6043926</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7791274198922</t>
+          <t>7791274200571</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Trolls acond Poppi 750</t>
+          <t>Algabo sh 0% açaí y romero 750</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>719.95359975</v>
+        <v>440.1990284999999</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6045910</t>
+          <t>6043927</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7791274198182</t>
+          <t>7791274200588</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Algabo ac aguacate y argán 930</t>
+          <t>Algabo sh 0% oliva y argán 750</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>318.837057</v>
+        <v>440.1990284999999</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>6045911</t>
+          <t>6045111</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7791274198199</t>
+          <t>7791274004391</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Algabo ac coco y leche 930</t>
+          <t>Kids aco sandía dulce 350</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>318.837057</v>
+        <v>337.3469715</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6045912</t>
+          <t>6045301</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7791274198205</t>
+          <t>7791274196980</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Algabo ac manz y magnolia 930</t>
+          <t>Algabo ac aguac y argán EP 300</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>318.837057</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6045922</t>
+          <t>6045303</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7791274199479</t>
+          <t>7791274196997</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Algabo ac aguac y argán EP 930</t>
+          <t>Algabo ac coco y miel EP 300</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>293.12404275</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>6045923</t>
+          <t>6045308</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7791274199486</t>
+          <t>7791274197000</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Algabo aco coco y leche EP 930</t>
+          <t>Algabo ac manz y magno EP 300</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>293.12404275</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6045924</t>
+          <t>6045309</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7791274199493</t>
+          <t>7791274198854</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Algabo ac manz y magn EP 930</t>
+          <t>Algabo ac detox EP 300</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>293.12404275</v>
+        <v>169.6994145</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>6045926</t>
+          <t>6045752</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7791274200595</t>
+          <t>7791274198724</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Algabo ac 0% açaí y romero 750</t>
+          <t>Kids aco sandía dulce 750</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>385.6844145</v>
+        <v>503.96859975</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6045927</t>
+          <t>6045753</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7791274200601</t>
+          <t>7791274198922</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Algabo ac 0% oliva y argán 750</t>
+          <t>Trolls acond Poppi 750</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>385.6844145</v>
+        <v>822.7948574999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6060415</t>
+          <t>6045910</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7791274004704</t>
+          <t>7791274198182</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Algabo crema aloe-manz 400</t>
+          <t>Algabo ac aguacate y argán 930</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>462.8234572499999</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>6060416</t>
+          <t>6045911</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7791274004711</t>
+          <t>7791274198199</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Algabo crema avena-karité 400</t>
+          <t>Algabo ac coco y leche 930</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>462.8234572499999</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6060417</t>
+          <t>6045912</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7791274004728</t>
+          <t>7791274198205</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Algabo crema miel-almendra 400</t>
+          <t>Algabo ac manz y magnolia 930</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>462.8234572499999</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6060507</t>
+          <t>6045920</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7791274005114</t>
+          <t>7791274198816</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Algabo crema manos y uñas 90</t>
+          <t>Algabo ac detox 930</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>244.78659975</v>
+        <v>388.773</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6060508</t>
+          <t>6045922</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7791274004407</t>
+          <t>7791274199479</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Algabo crema avena-karité 200</t>
+          <t>Algabo ac aguac y argán EP 930</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>308.54537175</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6060509</t>
+          <t>6045923</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7791274004414</t>
+          <t>7791274199486</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Algabo crema miel-almendra 200</t>
+          <t>Algabo aco coco y leche EP 930</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>308.54537175</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6060510</t>
+          <t>6045924</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7791274004421</t>
+          <t>7791274199493</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Algabo crema aloe-manz 200</t>
+          <t>Algabo ac manz y magn EP 930</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>308.54537175</v>
+        <v>342.4874145</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6062001</t>
+          <t>6045926</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7791274197512</t>
+          <t>7791274200595</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Algabo discos desmaq 80</t>
+          <t>Algabo ac 0% açaí y romero 750</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>318.837057</v>
+        <v>440.1990284999999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>6062002</t>
+          <t>6045927</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7791274197710</t>
+          <t>7791274200601</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Algabo wipes desmaq 25</t>
+          <t>Algabo ac 0% oliva y argán 750</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>241.69801425</v>
+        <v>440.1990284999999</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6062003</t>
+          <t>6060415</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7791274197963</t>
+          <t>7791274004704</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Algabo pompones de algodón 50</t>
+          <t>Algabo crema aloe-manz 400</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>318.837057</v>
+        <v>536.8739145</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6062004</t>
+          <t>6060416</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7791274198564</t>
+          <t>7791274004711</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Algabo wipes micelares 25</t>
+          <t>Algabo crema avena-karité 400</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>293.12404275</v>
+        <v>536.8739145</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>6062005</t>
+          <t>6060417</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7791274198571</t>
+          <t>7791274004728</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Algabo agua micelar dosif 120</t>
+          <t>Algabo crema miel-almendra 400</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>359.97140025</v>
+        <v>536.8739145</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>6062006</t>
+          <t>6060507</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7791274199943</t>
+          <t>7791274005114</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Algabo agua micelar 200</t>
+          <t>Algabo crema manos y uñas 90</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>431.97</v>
+        <v>292.098114</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>6068505</t>
+          <t>6060508</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7791274196485</t>
+          <t>7791274004407</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Algabo enjuague bucal 500</t>
+          <t>Algabo crema avena-karité 200</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -5491,841 +5491,981 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6068506</t>
+          <t>6060509</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7791274198793</t>
+          <t>7791274004414</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Algabo enjuague bucal 250</t>
+          <t>Algabo crema miel-almendra 200</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>275.640057</v>
+        <v>359.97140025</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6068507</t>
+          <t>6060510</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7791274200847</t>
+          <t>7791274004421</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Algabo enj bucal s/alcohol 250</t>
+          <t>Algabo crema aloe-manz 200</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>275.640057</v>
+        <v>359.97140025</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6068508</t>
+          <t>6062001</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7791274200854</t>
+          <t>7791274197512</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Algabo enj bucal s/alcohol 500</t>
+          <t>Algabo discos desmaq 80</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>359.97140025</v>
+        <v>376.42945725</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6069100</t>
+          <t>6062002</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7791274005237</t>
+          <t>7791274197710</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Algabo hisopos tubo 100</t>
+          <t>Algabo wipes desmaq 25</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>225.23995725</v>
+        <v>277.6919145</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6069125</t>
+          <t>6062003</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7791274199653</t>
+          <t>7791274197963</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Algabo hisopos zipper 125</t>
+          <t>Algabo pompones de algodón 50</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>225.23995725</v>
+        <v>376.42945725</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6069126B</t>
+          <t>6062004</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7791274199660</t>
+          <t>7791274198564</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Algabo hisopos tubo 125 IMPO</t>
+          <t>Algabo wipes micelares 25</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>282.84315675</v>
+        <v>334.258386</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6069126</t>
+          <t>6062005</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7791274199660</t>
+          <t>7791274198571</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Algabo hisopos tubo 125</t>
+          <t>Algabo agua micelar dosif 120</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>282.84315675</v>
+        <v>431.97</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6069150B</t>
+          <t>6062006</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7791274005251</t>
+          <t>7791274199943</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Algabo hisopos 150 IMPO</t>
+          <t>Algabo agua micelar 200</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>308.54537175</v>
+        <v>522.47851425</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6069200</t>
+          <t>6068505</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7791274005244</t>
+          <t>7791274196485</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Algabo hisopos tubo 200</t>
+          <t>Algabo enjuague bucal 500</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>354.83095725</v>
+        <v>435.0585855</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6070522</t>
+          <t>6068506</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7791274190131</t>
+          <t>7791274198793</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Algabo crema peinar rizado 300</t>
+          <t>Algabo enjuague bucal 250</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>342.4874145</v>
+        <v>323.9775</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6070525</t>
+          <t>6068507</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7791274001482</t>
+          <t>7791274200847</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Algabo crema peinar kerat 300</t>
+          <t>Algabo enj bucal s/alcohol 250</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>342.4874145</v>
+        <v>323.9775</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6070526</t>
+          <t>6068508</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7791274005121</t>
+          <t>7791274200854</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Algabo crema peinar argán 300</t>
+          <t>Algabo enj bucal s/alcohol 500</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>342.4874145</v>
+        <v>435.0585855</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>6070700</t>
+          <t>6069100</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7791274087004</t>
+          <t>7791274005237</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Algabo barro vegetal pote 350</t>
+          <t>Algabo hisopos tubo 100</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>399.0538859999999</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6070701</t>
+          <t>6069125</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7791274197864</t>
+          <t>7791274199653</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Algabo barro vegetal pomo 200</t>
+          <t>Algabo hisopos zipper 125</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>332.2065284999999</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6070750</t>
+          <t>6069126</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7791274009365</t>
+          <t>7791274199660</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Algabo baño natural argan 350</t>
+          <t>Algabo hisopos tubo 125</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>399.0538859999999</v>
+        <v>331.1805997499999</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6070753</t>
+          <t>6069200</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7791274197871</t>
+          <t>7791274005244</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Algabo baño natural pomo 200</t>
+          <t>Algabo hisopos tubo 200</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>332.2065284999999</v>
+        <v>419.62645725</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>6090002</t>
+          <t>6070522</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7791274089190</t>
+          <t>7791274190131</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Algabo gel chrome gota 150</t>
+          <t>Algabo crema peinar rizado 300</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>236.55757125</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6090003</t>
+          <t>6070525</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7791274190490</t>
+          <t>7791274001482</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Algabo gel silver gota 150</t>
+          <t>Algabo crema peinar kerat 300</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>236.55757125</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6090004</t>
+          <t>6070526</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7791274087547</t>
+          <t>7791274005121</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Algabo gel titanium 150</t>
+          <t>Algabo crema peinar argán 300</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>236.55757125</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6090022</t>
+          <t>6070700</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7791274189326</t>
+          <t>7791274087004</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Algabo gel ef. húmedo pomo 200</t>
+          <t>Algabo barro vegetal pote 350</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>224.2140285</v>
+        <v>462.8234572499999</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6090023</t>
+          <t>6070701</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7791274189340</t>
+          <t>7791274197864</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Algabo gel ext brillo pomo 200</t>
+          <t>Algabo barro vegetal pomo 200</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>224.2140285</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6090024</t>
+          <t>6070750</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7791274189333</t>
+          <t>7791274009365</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Algabo gel ext fuerte pomo 200</t>
+          <t>Algabo baño natural argan 350</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>224.2140285</v>
+        <v>462.8234572499999</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6090026</t>
+          <t>6070753</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7791274196430</t>
+          <t>7791274197871</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Algabo gel ef. húmedo pomo 150</t>
+          <t>Algabo baño natural pomo 200</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>205.704114</v>
+        <v>390.8248575</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6090027</t>
+          <t>6090002</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7791274196447</t>
+          <t>7791274089190</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Algabo gel ext brillo pomo 150</t>
+          <t>Algabo gel chrome gota 150</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>205.704114</v>
+        <v>272.5514715</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6090028</t>
+          <t>6090003</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7791274196454</t>
+          <t>7791274190490</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Algabo gel ext fuerte pomo 150</t>
+          <t>Algabo gel silver gota 150</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>205.704114</v>
+        <v>272.5514715</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6090052</t>
+          <t>6090004</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7791274189371</t>
+          <t>7791274087547</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Algabo gel ef. húmedo 475</t>
+          <t>Algabo gel titanium 150</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>365.1226425</v>
+        <v>272.5514715</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6090053</t>
+          <t>6090022</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7791274189197</t>
+          <t>7791274189326</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Algabo gel ext brillo 475</t>
+          <t>Algabo gel ef. húmedo pomo 200</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>365.1226425</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6090054</t>
+          <t>6090023</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7791274189388</t>
+          <t>7791274189340</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Algabo gel ext fuerte 475</t>
+          <t>Algabo gel ext brillo pomo 200</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>365.1226425</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6090072</t>
+          <t>6090024</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7791274196287</t>
+          <t>7791274189333</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Algabo gel ef. húmedo pote 350</t>
+          <t>Algabo gel ext fuerte pomo 200</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>277.6919145</v>
+        <v>262.2705855</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6090073</t>
+          <t>6090026</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7791274196294</t>
+          <t>7791274196430</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Algabo gel ext brillo pote 350</t>
+          <t>Algabo gel ef. húmedo pomo 150</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>277.6919145</v>
+        <v>239.6353575</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6090074</t>
+          <t>6090027</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7791274196300</t>
+          <t>7791274196447</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Algabo gel ext fuerte pote 350</t>
+          <t>Algabo gel ext brillo pomo 150</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>277.6919145</v>
+        <v>239.6353575</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6090082</t>
+          <t>6090028</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7791274196317</t>
+          <t>7791274196454</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Algabo gel chrome 500</t>
+          <t>Algabo gel ext fuerte pomo 150</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>457.68301425</v>
+        <v>239.6353575</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6090083</t>
+          <t>6090052</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7791274196324</t>
+          <t>7791274189371</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Algabo gel silver 500</t>
+          <t>Algabo gel ef. húmedo 475</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>457.68301425</v>
+        <v>426.829557</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6090084</t>
+          <t>6090053</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7791274196331</t>
+          <t>7791274189197</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Algabo gel titanium 500</t>
+          <t>Algabo gel ext brillo 475</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>457.68301425</v>
+        <v>426.829557</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6169100</t>
+          <t>6090054</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7791274200861</t>
+          <t>7791274189388</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>St Valley hisopos tubo 100</t>
+          <t>Algabo gel ext fuerte 475</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>190.27198575</v>
+        <v>426.829557</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>6330120</t>
+          <t>6090072</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7791274198137</t>
+          <t>7791274196287</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Algabo men talco 120</t>
+          <t>Algabo gel ef. húmedo pote 350</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>185.13154275</v>
+        <v>322.95157125</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6330121</t>
+          <t>6090073</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7791274199622</t>
+          <t>7791274196294</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Algabo men talco 180</t>
+          <t>Algabo gel ext brillo pote 350</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>234.4949145</v>
+        <v>322.95157125</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6332121</t>
+          <t>6090074</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>7791274191930</t>
+          <t>7791274196300</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Algabo men after shave 120</t>
+          <t>Algabo gel ext fuerte pote 350</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>452.54257125</v>
+        <v>322.95157125</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6340201</t>
+          <t>6090082</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>7791274197451</t>
+          <t>7791274196317</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Algabo men crema p afeitar 150</t>
+          <t>Algabo gel chrome 500</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>617.1015427499999</v>
+        <v>524.53037175</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6340397</t>
+          <t>6090083</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>7791274192883</t>
+          <t>7791274196324</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Algabo men espuma afeitar 415</t>
+          <t>Algabo gel silver 500</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>437.110443</v>
+        <v>524.53037175</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6340398</t>
+          <t>6090084</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7791274000928</t>
+          <t>7791274196331</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Algabo men espuma afeitar 200</t>
+          <t>Algabo gel titanium 500</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>328.09201425</v>
+        <v>524.53037175</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
+          <t>6169100</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>7791274200861</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>St Valley hisopos tubo 100</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>204.667386</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>6330120</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>7791274198137</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Algabo men talco 120</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>226.265886</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>6330121</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>7791274199622</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Algabo men talco 180</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>282.8323575</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>6332121</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>7791274191930</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Algabo men after shave 120</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>534.822057</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>6340201</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>7791274197451</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Algabo men crema p afeitar 150</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>745.6666140000001</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>6340397</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>7791274192883</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Algabo men espuma afeitar 415</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>514.24948575</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>6340398</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>7791274000928</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Algabo men espuma afeitar 200</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>378.492114</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
           <t>6340399</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B301" t="inlineStr">
         <is>
           <t>7791274200878</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C301" t="inlineStr">
         <is>
           <t>Algabo men cr afeitar pomo 177</t>
         </is>
       </c>
-      <c r="D294" t="n">
-        <v>478.2555855</v>
+      <c r="D301" t="n">
+        <v>550.2433859999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/algabo.xlsx
+++ b/data/procesados/algabo.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -440,7 +427,7 @@
   </sheetPr>
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6469,6 +6456,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>